--- a/IEEE30/IEEE30_non_random_Fitness.xlsx
+++ b/IEEE30/IEEE30_non_random_Fitness.xlsx
@@ -26,13 +26,13 @@
     <t>TSO</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>GWO</t>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>CPO</t>
+  </si>
+  <si>
+    <t>PLO</t>
   </si>
   <si>
     <t>TLBO</t>
@@ -153,13 +153,13 @@
         <v>791.31253153323189</v>
       </c>
       <c r="D2" s="0">
-        <v>799.63129988684898</v>
+        <v>791.89908302032757</v>
       </c>
       <c r="E2" s="0">
-        <v>791.70232157664793</v>
+        <v>805.87049798078874</v>
       </c>
       <c r="F2" s="0">
-        <v>792.57264584891948</v>
+        <v>795.31307835843268</v>
       </c>
       <c r="G2" s="0">
         <v>796.11636749381796</v>
@@ -182,13 +182,13 @@
         <v>791.86269302633002</v>
       </c>
       <c r="D3" s="0">
-        <v>820.42416971279636</v>
+        <v>793.11507085660242</v>
       </c>
       <c r="E3" s="0">
-        <v>794.42432598976075</v>
+        <v>821.65000176732258</v>
       </c>
       <c r="F3" s="0">
-        <v>796.48883233657773</v>
+        <v>802.40508667553956</v>
       </c>
       <c r="G3" s="0">
         <v>801.85264158095231</v>
@@ -211,13 +211,13 @@
         <v>793.6383941714987</v>
       </c>
       <c r="D4" s="0">
-        <v>861.61803207211176</v>
+        <v>795.21982847370464</v>
       </c>
       <c r="E4" s="0">
-        <v>798.00325530222176</v>
+        <v>851.48188455286663</v>
       </c>
       <c r="F4" s="0">
-        <v>814.22001485977796</v>
+        <v>813.34906309400571</v>
       </c>
       <c r="G4" s="0">
         <v>834.35991326154488</v>
@@ -240,13 +240,13 @@
         <v>0.47323198338951517</v>
       </c>
       <c r="D5" s="0">
-        <v>17.063486670230926</v>
+        <v>0.88359450251127969</v>
       </c>
       <c r="E5" s="0">
-        <v>1.5267835983586542</v>
+        <v>11.422927204156828</v>
       </c>
       <c r="F5" s="0">
-        <v>4.6831404698234778</v>
+        <v>4.31657637953262</v>
       </c>
       <c r="G5" s="0">
         <v>8.7643282457144256</v>
@@ -282,28 +282,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -318,13 +318,13 @@
         <v>2.0119837181971132</v>
       </c>
       <c r="D2" s="0">
-        <v>4.1797015921630027</v>
+        <v>2.0236990671935517</v>
       </c>
       <c r="E2" s="0">
-        <v>2.158728673282754</v>
+        <v>3.2192079228276067</v>
       </c>
       <c r="F2" s="0">
-        <v>2.4629634936756699</v>
+        <v>2.2209414693261724</v>
       </c>
       <c r="G2" s="0">
         <v>2.3842151178284228</v>
@@ -347,13 +347,13 @@
         <v>2.3315864634788239</v>
       </c>
       <c r="D3" s="0">
-        <v>6.1674699271573985</v>
+        <v>2.7839694213722455</v>
       </c>
       <c r="E3" s="0">
-        <v>2.5371191854450523</v>
+        <v>6.3972794448684303</v>
       </c>
       <c r="F3" s="0">
-        <v>3.7809901140449238</v>
+        <v>2.7250503735170684</v>
       </c>
       <c r="G3" s="0">
         <v>3.1615307657964835</v>
@@ -376,13 +376,13 @@
         <v>2.9419779340028591</v>
       </c>
       <c r="D4" s="0">
-        <v>10.472971325458843</v>
+        <v>5.8190897005236275</v>
       </c>
       <c r="E4" s="0">
-        <v>3.0180172875943461</v>
+        <v>11.32271203060971</v>
       </c>
       <c r="F4" s="0">
-        <v>7.4353045064038046</v>
+        <v>3.2799069536943244</v>
       </c>
       <c r="G4" s="0">
         <v>4.9828822816623957</v>
@@ -405,13 +405,13 @@
         <v>0.21264291383609726</v>
       </c>
       <c r="D5" s="0">
-        <v>1.5003718143583982</v>
+        <v>0.67799701279548485</v>
       </c>
       <c r="E5" s="0">
-        <v>0.23119755856443427</v>
+        <v>2.7985133896081962</v>
       </c>
       <c r="F5" s="0">
-        <v>1.3107551278633984</v>
+        <v>0.25368050986633034</v>
       </c>
       <c r="G5" s="0">
         <v>0.58518944095473258</v>
@@ -447,28 +447,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -483,13 +483,13 @@
         <v>0.13560058776283801</v>
       </c>
       <c r="D2" s="0">
-        <v>0.25844200747036505</v>
+        <v>0.1857528462532404</v>
       </c>
       <c r="E2" s="0">
-        <v>0.17145776364745668</v>
+        <v>0.39609198916316712</v>
       </c>
       <c r="F2" s="0">
-        <v>0.17963816544195765</v>
+        <v>0.2223007852106974</v>
       </c>
       <c r="G2" s="0">
         <v>0.23091320405152371</v>
@@ -512,13 +512,13 @@
         <v>0.1661240613938339</v>
       </c>
       <c r="D3" s="0">
-        <v>0.43950538784484933</v>
+        <v>0.23329818426031992</v>
       </c>
       <c r="E3" s="0">
-        <v>0.21855339259830997</v>
+        <v>0.5831980395476537</v>
       </c>
       <c r="F3" s="0">
-        <v>0.21588139482309782</v>
+        <v>0.26683124777447298</v>
       </c>
       <c r="G3" s="0">
         <v>0.33572791808676583</v>
@@ -541,13 +541,13 @@
         <v>0.20708748217670125</v>
       </c>
       <c r="D4" s="0">
-        <v>0.73819895234620714</v>
+        <v>0.2739790431744018</v>
       </c>
       <c r="E4" s="0">
-        <v>0.28298778014574077</v>
+        <v>0.73705429388973254</v>
       </c>
       <c r="F4" s="0">
-        <v>0.24318994861768262</v>
+        <v>0.31528008089042558</v>
       </c>
       <c r="G4" s="0">
         <v>0.49707871548401894</v>
@@ -570,13 +570,13 @@
         <v>0.019829238921712573</v>
       </c>
       <c r="D5" s="0">
-        <v>0.1126738005649586</v>
+        <v>0.020665529149890612</v>
       </c>
       <c r="E5" s="0">
-        <v>0.026171701382108531</v>
+        <v>0.11698910114387237</v>
       </c>
       <c r="F5" s="0">
-        <v>0.015497241736679223</v>
+        <v>0.026155987044157804</v>
       </c>
       <c r="G5" s="0">
         <v>0.07099491051648793</v>
@@ -612,28 +612,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -648,13 +648,13 @@
         <v>926.37145492379966</v>
       </c>
       <c r="D2" s="0">
-        <v>979.44844558065392</v>
+        <v>934.78650350115299</v>
       </c>
       <c r="E2" s="0">
-        <v>929.73701308262309</v>
+        <v>956.85123403391935</v>
       </c>
       <c r="F2" s="0">
-        <v>944.21887729944785</v>
+        <v>941.44658176727114</v>
       </c>
       <c r="G2" s="0">
         <v>939.40311609034427</v>
@@ -677,13 +677,13 @@
         <v>930.28657921249442</v>
       </c>
       <c r="D3" s="0">
-        <v>1049.7420728614638</v>
+        <v>944.71646552702362</v>
       </c>
       <c r="E3" s="0">
-        <v>939.24307225414839</v>
+        <v>1080.704392816252</v>
       </c>
       <c r="F3" s="0">
-        <v>963.7880594821961</v>
+        <v>957.11332637532712</v>
       </c>
       <c r="G3" s="0">
         <v>972.16577485706205</v>
@@ -706,13 +706,13 @@
         <v>933.8684514717603</v>
       </c>
       <c r="D4" s="0">
-        <v>1169.987372425536</v>
+        <v>962.56254546083983</v>
       </c>
       <c r="E4" s="0">
-        <v>953.58629750272053</v>
+        <v>1308.0560264631317</v>
       </c>
       <c r="F4" s="0">
-        <v>993.83847189097685</v>
+        <v>990.61890860148492</v>
       </c>
       <c r="G4" s="0">
         <v>1017.5855858070461</v>
@@ -735,13 +735,13 @@
         <v>1.8732675312497211</v>
       </c>
       <c r="D5" s="0">
-        <v>46.117496559362706</v>
+        <v>7.3122953639935648</v>
       </c>
       <c r="E5" s="0">
-        <v>5.1853717659593981</v>
+        <v>128.48377240835435</v>
       </c>
       <c r="F5" s="0">
-        <v>13.990797896150925</v>
+        <v>10.695831293552708</v>
       </c>
       <c r="G5" s="0">
         <v>18.683094791355767</v>
@@ -777,28 +777,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -813,13 +813,13 @@
         <v>795.45312298646797</v>
       </c>
       <c r="D2" s="0">
-        <v>818.22694854351107</v>
+        <v>804.96839039157805</v>
       </c>
       <c r="E2" s="0">
-        <v>799.48708044459067</v>
+        <v>858.73204959801853</v>
       </c>
       <c r="F2" s="0">
-        <v>805.77624978470635</v>
+        <v>812.01169625245927</v>
       </c>
       <c r="G2" s="0">
         <v>815.12634509350164</v>
@@ -842,13 +842,13 @@
         <v>798.52925727393153</v>
       </c>
       <c r="D3" s="0">
-        <v>852.12459654656016</v>
+        <v>809.52471100135597</v>
       </c>
       <c r="E3" s="0">
-        <v>808.87529071425308</v>
+        <v>878.30840896450115</v>
       </c>
       <c r="F3" s="0">
-        <v>817.19680153477032</v>
+        <v>828.48523825953805</v>
       </c>
       <c r="G3" s="0">
         <v>836.73244097198892</v>
@@ -871,13 +871,13 @@
         <v>803.85207340223121</v>
       </c>
       <c r="D4" s="0">
-        <v>875.3964369334235</v>
+        <v>817.72679856400327</v>
       </c>
       <c r="E4" s="0">
-        <v>817.95383579152497</v>
+        <v>900.61855028403374</v>
       </c>
       <c r="F4" s="0">
-        <v>834.03873623235938</v>
+        <v>843.8371799780092</v>
       </c>
       <c r="G4" s="0">
         <v>886.69491566755676</v>
@@ -900,13 +900,13 @@
         <v>2.0762691150238695</v>
       </c>
       <c r="D5" s="0">
-        <v>13.147782069726352</v>
+        <v>2.784134161194237</v>
       </c>
       <c r="E5" s="0">
-        <v>4.8192206006005671</v>
+        <v>14.057938722047263</v>
       </c>
       <c r="F5" s="0">
-        <v>6.7014474423803918</v>
+        <v>9.3944534656654461</v>
       </c>
       <c r="G5" s="0">
         <v>17.96973217954822</v>
@@ -942,28 +942,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -978,13 +978,13 @@
         <v>885.71206271943117</v>
       </c>
       <c r="D2" s="0">
-        <v>912.79019431941356</v>
+        <v>890.485313368633</v>
       </c>
       <c r="E2" s="0">
-        <v>887.854057388147</v>
+        <v>914.64162694979598</v>
       </c>
       <c r="F2" s="0">
-        <v>892.56151868793438</v>
+        <v>899.48920737711899</v>
       </c>
       <c r="G2" s="0">
         <v>896.27029847037431</v>
@@ -1007,13 +1007,13 @@
         <v>887.41694773542429</v>
       </c>
       <c r="D3" s="0">
-        <v>967.35200428286191</v>
+        <v>895.88649088672764</v>
       </c>
       <c r="E3" s="0">
-        <v>893.22787780529893</v>
+        <v>945.0150362277534</v>
       </c>
       <c r="F3" s="0">
-        <v>905.74168403787303</v>
+        <v>906.50815965421509</v>
       </c>
       <c r="G3" s="0">
         <v>920.17242307462948</v>
@@ -1036,13 +1036,13 @@
         <v>889.32428132439145</v>
       </c>
       <c r="D4" s="0">
-        <v>1050.1272870105352</v>
+        <v>907.43656674280783</v>
       </c>
       <c r="E4" s="0">
-        <v>902.62201600929973</v>
+        <v>978.17183010931581</v>
       </c>
       <c r="F4" s="0">
-        <v>933.37288535656069</v>
+        <v>921.2767733659357</v>
       </c>
       <c r="G4" s="0">
         <v>942.81803246090089</v>
@@ -1065,13 +1065,13 @@
         <v>0.88656696025979698</v>
       </c>
       <c r="D5" s="0">
-        <v>40.165861229526918</v>
+        <v>5.2081309653885848</v>
       </c>
       <c r="E5" s="0">
-        <v>3.5523434069555853</v>
+        <v>22.84491791394419</v>
       </c>
       <c r="F5" s="0">
-        <v>11.817040061126539</v>
+        <v>5.3412483464433906</v>
       </c>
       <c r="G5" s="0">
         <v>13.444542173798002</v>
